--- a/storage/管理员/2025-12-04/result.xlsx
+++ b/storage/管理员/2025-12-04/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="231">
   <si>
     <t>question</t>
   </si>
@@ -99,7 +99,11 @@
   <si>
     <t>Use the following two statements to answer this question:
 I. A market is a collection of buyers and sellers that, through actual or potential interactions, determine the price for a product or set of products.
-II. An industry is a collection of markets for similar or closely related products.</t>
+II. An industry is a collection of markets for similar or closely related products.
+A) Both I and II are true.
+B) I is true, and II is false.
+C) I is false, and II is true.
+D) Both I and II are false.</t>
   </si>
   <si>
     <t>In a perfectly competitive market:</t>
@@ -134,7 +138,11 @@
   <si>
     <t>Use the following statements to answer this question:
 I. Political candidates need to know the geographical extent of the market for TV commercials in determining how to reach the target number of eligible voters with the smallest possible expenditure.
-II. The geographical extent of the market for gasoline in Texas will determine whether an oil company drills for oil there.</t>
+II. The geographical extent of the market for gasoline in Texas will determine whether an oil company drills for oil there.
+A) I and II are true.
+B) I is true, and II is false.
+C) I is false, and II is true.
+D) I and II are false.</t>
   </si>
   <si>
     <t>Which of the following assertions, if proven true in a court of law, would help Archer-Daniels-Midland, a maker of corn syrup, in its attempt to acquire another corn syrup producer, the Clinton Corn Processing Company?</t>
@@ -142,11 +150,24 @@
   <si>
     <t>Use the following statements to answer this question:
 I. If the extent of a market is broader, it is less likely that firms in the market can influence the market price.
-II. In determining whether two different products belong to the same market, it is necessary to know whether the two products can be used as substitutes for each other.</t>
+II. In determining whether two different products belong to the same market, it is necessary to know whether the two products can be used as substitutes for each other.
+A) I and II are both false.
+B) I is false, and II is true.
+C) I is true, and II is false.
+D) I and II are both true.</t>
   </si>
   <si>
     <t>Use the following statements to answer this question:
 I. The price for a given product may differ across sellers if the market is not perfectly competitive.
+II. A single "market price" does not exist in imperfectly competitive markets.
+A) I and II are true.
+B) I is true and II is false.
+C) II is true and I is false.
+D) I and II are false.</t>
+  </si>
+  <si>
+    <t>Use the following statements to answer this question:
+I. The price for a given product may differ across sellers if the market is not perfectly competitive.  
 II. A single "market price" does not exist in imperfectly competitive markets.</t>
   </si>
   <si>
@@ -215,22 +236,31 @@
     <t>Suppose the Social Security Administration would like to guarantee the purchasing power of social security payments to the elderly does not diminish. That is, the real value of the payments does not decrease. The CPI in 1990 was 130.7 and the CPI in 1998 was 163.0. How much does the Social Security Administration need to increase payments from 1990 to 1998 to accomplish this objective?</t>
   </si>
   <si>
-    <t>Suppose the minimum wage was \(0.25 per hour in 1938 and the CPI in that year was 11.5. If the CPI in 1990 was 130.7, what is the real value of the 1938 minimum wage in terms of 1990 dollars? The real value of the 1990 minimum wage in terms of 1990 dollars is \)4.25. Has the real value of the minimum wage declined since 1938?</t>
-  </si>
-  <si>
-    <t>The reward for the capture of Jesse James was \(500.00 in 1881. Suppose the CPI in 1881 was 0.25. What is the real value of the reward in 2010 dollars if the CPI was 218.1 in 2010?</t>
-  </si>
-  <si>
-    <t>The CPI in 1970 was 38.8 and in 1998 the CPI was 163.0. If the real value of a 1970 gallon of milk in terms of 1998 dollars is \)0.70, what was the nominal price of milk in 1970?</t>
-  </si>
-  <si>
-    <t>The nominal price of milk was \(2.25 in 1998 while the CPI was 163.0 that year. Also, the CPI in 1970 was 38.8. What was the real value of 1998 milk in terms of 1970 dollars?</t>
-  </si>
-  <si>
-    <t>The nominal price of a 1990 laptop was \)3,500 and the CPI that year was 130.7. The nominal price of a laptop in 2010 was \(600 and the CPI that year was 218.1. What is the real price of a 2010 laptop in terms of 1990 dollars? By what percent has the real price of laptops changed?</t>
-  </si>
-  <si>
-    <t>The price to attend a NBA basketball game in Chicago is \)55 while the CPI in Chicago is 153. The CPI in Charlotte is 108 while the price to attend a NBA basketball game is \(52. Which city offers a smaller real cost of attending a NBA basketball game?</t>
+    <t>Suppose the minimum wage was $0.25 per hour in 1938 and the CPI in that year was 11.5. If the CPI in 1990 was 130.7, what is the real value of the 1938 minimum wage in terms of 1990 dollars? The real value of the 1990 minimum wage in terms of 1990 dollars is $4.25. Has the real value of the minimum wage declined since 1938?</t>
+  </si>
+  <si>
+    <t>The reward for the capture of Jesse James was $500.00 in 1881. Suppose the CPI in 1881 was 0.25. What is the real value of the reward in 2010 dollars if the CPI was 218.1 in 2010?</t>
+  </si>
+  <si>
+    <t>The CPI in 1970 was 38.8 and in 1998 the CPI was 163.0. If the real value of a 1970 gallon of milk in terms of 1998 dollars is $0.70, what was the nominal price of milk in 1970?</t>
+  </si>
+  <si>
+    <t>The nominal price of milk was $2.25 in 1998 while the CPI was 163.0 that year. Also, the CPI in 1970 was 38.8. What was the real value of 1998 milk in terms of 1970 dollars?</t>
+  </si>
+  <si>
+    <t>The nominal price of a 1990 laptop was $3,500 and the CPI that year was 130.7. The nominal price of a laptop in 2010 was $600 and the CPI that year was 218.1. What is the real price of a 2010 laptop in terms of 1990 dollars? By what percent has the real price of laptops changed?</t>
+  </si>
+  <si>
+    <t>The price to attend a NBA basketball game in Chicago is $55 while the CPI in Chicago is 153. The CPI in Charlotte is 108 while the price to attend a NBA basketball game is $52. Which city offers a smaller real cost of attending a NBA basketball game?</t>
+  </si>
+  <si>
+    <t>The first column of the following table describes the price movement of AOL Corporation stock over a five-year period. The second column gives the period's consumer price index. Calculate the real value of the stock for each time period using year 5 as the base year. If you purchased $1,000 worth of AOL Corporation in year 1, what has happened to the purchasing power of your original $1,000 investment when you sell the stock in year 5?</t>
+  </si>
+  <si>
+    <t>The following is a list of housing costs in five different countries along with their CPI. For which country is the real cost of housing declining? Use year 2 as the base year in your answer.</t>
+  </si>
+  <si>
+    <t>For each city across the U.S., economists construct a price index for a similar basket of goods. In Los Angeles the index is 127.3 and the index for Dallas is 94.8. If you have been offered \(137,000 for a job in Los Angeles and \)117,000 for a similar job in Dallas, which job affords you the highest purchasing power of the bundle of goods in the price index? Use the Los Angeles value as the base.</t>
   </si>
   <si>
     <t>Suppose we expect consumer prices to increase by about 30 percent between 2010 and 2020, and the minimum wage was \)7.25 per hour in 2010. What should be the minimum wage in 2020 if it is set to maintain the same purchasing power as in 2010?</t>
@@ -239,19 +269,16 @@
     <t>The "core" inflation rate is typically defined as the change in consumer prices for all goods included in the CPI basket except energy and food products. Suppose the overall inflation rate based on the CPI was 4 percent for the past year, and energy and food prices did not change during the year. Is the core inflation rate for the past year higher or lower than 4 percent?</t>
   </si>
   <si>
-    <t>We can approximate the real return on an investment by subtracting the inflation rate from the nominal return on the investment. For example, an investment that returns 10% per year while inflation is 4% per year has a real (inflation adjusted) return of approximately 6%. Which of the following outcomes is NOT possible?</t>
-  </si>
-  <si>
-    <t>Which of the following is NOT an example of ways in which microeconomic analysis can help Toyota Motor Corporation in its corporate decision making?</t>
+    <t>We can approximate the real return on an investment by subtracting the inflation rate from the nominal return on the investment. For example, an investment that returns 10\% per year while inflation is 4\% per year has a real (inflation adjusted) return of approximately 6\%. Which of the following outcomes is NOT possible?</t>
+  </si>
+  <si>
+    <t>Which of the following is NOT an example of ways in which microeconomic analysis can help Toyota Motor Corporation its in corporate decision making?</t>
   </si>
   <si>
     <t>Which of the following is NOT an example of a way in which microeconomic analysis can help in designing environmental policy?</t>
   </si>
   <si>
     <t>To evaluate the potential impact of changes to its SUV business, Ford Motor Company would use:</t>
-  </si>
-  <si>
-    <t>Designing laws to provide incentives for firms to implement clean technologies in new vehicles</t>
   </si>
   <si>
     <t>The Clean Air Act is designed to restrict automobile emissions and reduce the external costs of air pollution. The economic analysis used to develop the Clean Air Act was:</t>
@@ -482,6 +509,12 @@
 D) I and II are false.</t>
   </si>
   <si>
+    <t>A) there are no close substitutes for your product.
+B) there are lots of other firms selling closely related products in your market.
+C) your market is perfectly competitive.
+D) none of the above</t>
+  </si>
+  <si>
     <t>A) sell in the low-price market and buy in the high-price market.
 B) buy in the low-price market and sell in the high-price market.
 C) sell in both markets to capture a lower average "market price."
@@ -553,9 +586,9 @@
   </si>
   <si>
     <t>A) 12%.
-B) 17%.
+B) 17%
 C) 20%.
-D) 24%.
+D) 24%
 E) 32%.</t>
   </si>
   <si>
@@ -589,65 +622,29 @@
 D) 209.0</t>
   </si>
   <si>
-    <t>A. Yes, it has declined.
-B. No, it has increased.
-C. The real value remained the same.
-D. Cannot be determined from the given data.</t>
-  </si>
-  <si>
-    <t>A. \)436,200
-B. \(54,525
-C. \)1,000
-D. \(109,050</t>
-  </si>
-  <si>
-    <t>A. \(0.17
-B. \)0.70
-C. \(2.94
-D. \)0.25</t>
-  </si>
-  <si>
-    <t>A. \)0.54
-B. \(2.25
-C. \)9.44
-D. \(0.17</t>
-  </si>
-  <si>
-    <t>A. \)360; 89.71% decline
-B. \(600; 50% decline
-C. \)1,000; 71% decline
-D. \(360; 10% increase</t>
-  </si>
-  <si>
-    <t>A. Chicago
-B. Charlotte
-C. Both are equal
-D. Cannot be determined</t>
-  </si>
-  <si>
-    <t>A. \(7.25
-B. \)7.55
-C. \(9.42
-D. none of the above.</t>
-  </si>
-  <si>
-    <t>A. Higher
-B. Lower
-C. They are the same
-D. We do not have enough information to answer this question.</t>
-  </si>
-  <si>
-    <t>A. Nominal and real returns are positive
-B. Nominal return is positive, real return is negative
-C. Nominal return is negative, real return is positive
-D. all of these outcomes are possible</t>
-  </si>
-  <si>
-    <t>A. Forecasting demand for new automobiles
-B. Determining how many automobiles to produce in order to maximize profits
-C. Predicting how competitors will react to the firm's pricing strategy
-D. Forecasting the effect of Toyota's hiring patterns on the U.S. unemployment rate
-E. Forecasting the effect of an oil price increase on demand for hybrid autos</t>
+    <t>A) \(7.25
+B) \)7.55
+C) \(9.42
+D) none of the above.</t>
+  </si>
+  <si>
+    <t>A) Higher
+B) Lower
+C) They are the same
+D) We do not have enough information to answer this question.</t>
+  </si>
+  <si>
+    <t>A) Nominal and real returns are positive
+B) Nominal return is positive, real return is negative
+C) Nominal return is negative, real return is positive
+D) all of these outcomes are possible</t>
+  </si>
+  <si>
+    <t>A) Forecasting demand for new automobiles
+B) Determining how many automobiles to produce in order to maximize profits
+C) Predicting how competitors will react to the firm's pricing strategy
+D) Forecasting the effect of Toyota's hiring patterns on the U.S. unemployment rate
+E) Forecasting the effect of an oil price increase on demand for hybrid autos</t>
   </si>
   <si>
     <t>A. Determining the optimal level of vehicle fuel efficiency standards
@@ -658,13 +655,8 @@
   <si>
     <t>A. normative economic analysis.
 B. positive economic analysis.
-C. macroeconomic analysis.
-D. consumer sentiment analysis.</t>
-  </si>
-  <si>
-    <t>A. Designing laws to provide incentives for firms to implement clean technologies in new vehicles
-B. Lobbying consumers and firms to reduce consumption of energy
-C. Examining the tradeoffs between ecological benefits of environmental legislation and its impacts on consumers' standard of living</t>
+C. negative economic analysis.
+D. arbitrage analysis.</t>
   </si>
   <si>
     <t>A. normative.
@@ -700,25 +692,52 @@
     <t>B</t>
   </si>
   <si>
-    <t>The change in the general price level is 100(163 − 130.7)/130.7 = 25%. Thus, the level of payments in 1998 need to be P(1990)*(1 + 0.25).</t>
-  </si>
-  <si>
-    <t>Definition and scope of microeconomics, Individual decision-making units</t>
-  </si>
-  <si>
-    <t>Scarcity and trade-offs, Budget constraints</t>
-  </si>
-  <si>
-    <t>Opportunity cost, Identifying true trade-offs</t>
-  </si>
-  <si>
-    <t>Role of economic theories, Predictive power vs. perfect accuracy</t>
-  </si>
-  <si>
-    <t>Positive vs. normative analysis, Scientific method in economics</t>
-  </si>
-  <si>
-    <t>Positive statements (fact-based), Normative statements (opinion-based)</t>
+    <t>Increase payments by 24.7% (163.0/130.7 − 1)</t>
+  </si>
+  <si>
+    <t>W(1938) = 130.7($0.25)/11.5 = $2.84, so the real value of the minimum wage has increased from 1938 to 1990.</t>
+  </si>
+  <si>
+    <t>218.1($500)/0.25 = 218.1($2,000) = $436,200.</t>
+  </si>
+  <si>
+    <t>38.8(\$0.70)/163 = \$0.17.</t>
+  </si>
+  <si>
+    <t>38.8($2.25)/163 = $0.54.</t>
+  </si>
+  <si>
+    <t>130.7(\$600)/218.1 = \$360. Percent decline in the real value of laptops: -100(\$360 - \$3,500)/\$3,500 = 89.71%</t>
+  </si>
+  <si>
+    <t>Chicago real value [NBA(Charlotte)] = 153(52)/108 = $73.67. The real value of a game in Charlotte exceeds the real value of a game in Chicago. Chicago offers a smaller real cost of attending a game.</t>
+  </si>
+  <si>
+    <t>The real value of a year 1996 dollar in 2000 is \(172.1(\$1)/147.8 = \$1.16. I would have bought 250 shares of AOL at 1996 prices (ignoring transaction costs) with the \)1,000. The value of the stock in the year 2000 is \((250(\$70)) = \)17,500. The change in my purchasing power is \((\$17,500 - \$1,160)/\$1,160 = 14.09. That is, my purchasing power from investing in the stock rises by \(1,409\%.</t>
+  </si>
+  <si>
+    <t>The real cost of housing in Spain has decreased. The real cost of year 1 housing in year 2 is (169/143)53 = \(62.64. This exceeds the real cost of year 2 housing in year 2, \)57.00. Thus, housing costs have declined in Spain.</t>
+  </si>
+  <si>
+    <t>Real value[Dallas] = 127.3(\(117,000)/94.8 = \)157,111. This exceeds the real \(137,000 salary for the job in Los Angeles. The Dallas job provides higher purchasing power.</t>
+  </si>
+  <si>
+    <t>Definition and scope of microeconomics, Difference between microeconomics and macroeconomics</t>
+  </si>
+  <si>
+    <t>Scarcity and choice, Budget constraints</t>
+  </si>
+  <si>
+    <t>Opportunity cost, Identifying scarcity in decision-making</t>
+  </si>
+  <si>
+    <t>Role of economic theories, Simplifying assumptions in models</t>
+  </si>
+  <si>
+    <t>Positive vs normative analysis, Scientific method in economics</t>
+  </si>
+  <si>
+    <t>Positive statements, Value-free economic analysis</t>
   </si>
   <si>
     <t>Normative statements, Policy recommendations</t>
@@ -727,196 +746,205 @@
     <t>Limits of positive analysis, Normative conclusions require value judgments</t>
   </si>
   <si>
-    <t>Positive vs. normative distinction, Role of empirical evidence</t>
-  </si>
-  <si>
-    <t>Definitions of positive and normative</t>
+    <t>Normative analysis and value judgments, Role of theory in positive analysis</t>
+  </si>
+  <si>
+    <t>Positive vs normative distinction</t>
   </si>
   <si>
     <t>Profit-maximization assumption, Theory of the firm</t>
   </si>
   <si>
-    <t>Role of prices, Market vs. non-market pricing</t>
-  </si>
-  <si>
-    <t>Scientific method in economics, Limitations of theoretical models</t>
-  </si>
-  <si>
-    <t>Consumer choice, Intertemporal trade-offs</t>
-  </si>
-  <si>
-    <t>Labor supply decisions, Education vs. work choices</t>
-  </si>
-  <si>
-    <t>Production decisions, Resource allocation by firms</t>
-  </si>
-  <si>
-    <t>Policy proposals as normative statements</t>
-  </si>
-  <si>
-    <t>Broad concept of price, Prices as opportunity costs</t>
-  </si>
-  <si>
-    <t>Market boundaries, Geographic constraints in markets</t>
-  </si>
-  <si>
-    <t>Arbitrage, Financial market strategies</t>
-  </si>
-  <si>
-    <t>Definition of market, Definition of industry</t>
-  </si>
-  <si>
-    <t>Perfect competition, Price-taking behavior</t>
-  </si>
-  <si>
-    <t>Imperfect competition, Market power</t>
-  </si>
-  <si>
-    <t>Examples of competitive markets, Commodity markets</t>
-  </si>
-  <si>
-    <t>Competition among few firms, Price competition</t>
-  </si>
-  <si>
-    <t>Market extent and transportation, Housing markets</t>
-  </si>
-  <si>
-    <t>Market definition, Antitrust policy</t>
-  </si>
-  <si>
-    <t>Market boundaries, Product and geographic dimensions</t>
-  </si>
-  <si>
-    <t>Market vs industry, Buyers and sellers</t>
-  </si>
-  <si>
-    <t>Competitive vs non-competitive markets, Price-setting power</t>
-  </si>
-  <si>
-    <t>Product market definition, Substitute goods</t>
-  </si>
-  <si>
-    <t>Market extent and advertising, Resource extraction decisions</t>
-  </si>
-  <si>
-    <t>Merger guidelines, Market share and competition</t>
-  </si>
-  <si>
-    <t>Market breadth and competition, Substitutability</t>
-  </si>
-  <si>
-    <t>Price dispersion, Imperfect competition</t>
-  </si>
-  <si>
-    <t>Price-setting power, Market structure</t>
-  </si>
-  <si>
-    <t>Arbitrage definition and mechanics, Price convergence</t>
-  </si>
-  <si>
-    <t>Transaction costs and arbitrage limits, Legal barriers to trade</t>
-  </si>
-  <si>
-    <t>Perfect competition characteristics, Market structure definitions</t>
-  </si>
-  <si>
-    <t>Market definition and geographic scope, Product differentiation and competition</t>
-  </si>
-  <si>
-    <t>Merger analysis and market power, Availability of substitutes</t>
-  </si>
-  <si>
-    <t>Arbitrage profitability condition, Transaction costs vs. price gap</t>
-  </si>
-  <si>
-    <t>Geographic market definition, Commuting costs and housing demand</t>
-  </si>
-  <si>
-    <t>Real vs. nominal prices, Constant dollar definition</t>
+    <t>Role of prices in microeconomics, Price determination</t>
+  </si>
+  <si>
+    <t>Scientific method in economics, Limitations of economic theory</t>
+  </si>
+  <si>
+    <t>Consumer choice, Budget allocation</t>
+  </si>
+  <si>
+    <t>Labor supply decisions, Work-leisure trade-off</t>
+  </si>
+  <si>
+    <t>Production decisions, Firm constraints</t>
+  </si>
+  <si>
+    <t>Normative nature of policy proposals</t>
+  </si>
+  <si>
+    <t>Broad concept of prices, Price as opportunity cost</t>
+  </si>
+  <si>
+    <t>Market boundaries, Geographic constraints in markets, Housing market localization</t>
+  </si>
+  <si>
+    <t>Definition of arbitrage, Convertible securities, Risk-free profit opportunities</t>
+  </si>
+  <si>
+    <t>Definition of market, Definition of industry, Distinction between market and industry</t>
+  </si>
+  <si>
+    <t>Perfect competition characteristics, Price-taking behavior, Market power absence</t>
+  </si>
+  <si>
+    <t>Oligopoly characteristics, Price-making power, Barriers to entry</t>
+  </si>
+  <si>
+    <t>Examples of perfectly competitive markets, Homogeneous products, Many buyers and sellers</t>
+  </si>
+  <si>
+    <t>Competitive oligopoly, Price competition, Market contestability</t>
+  </si>
+  <si>
+    <t>Market extent and transportation, Commuting costs and housing demand, Geographic market expansion</t>
+  </si>
+  <si>
+    <t>Market definition importance, Competitive analysis, Antitrust policy</t>
+  </si>
+  <si>
+    <t>Market extent determinants, Geographic and product scope, Substitution possibilities</t>
+  </si>
+  <si>
+    <t>Market vs industry participants, Buyers and sellers roles, Industry supply side</t>
+  </si>
+  <si>
+    <t>Competitive vs non-competitive markets, Price influence and market power, Market structure</t>
+  </si>
+  <si>
+    <t>Product market definition, Substitute goods, Cross-price elasticity</t>
+  </si>
+  <si>
+    <t>Market extent and advertising, Drilling decisions vs gasoline market, Geographic market relevance</t>
+  </si>
+  <si>
+    <t>Merger approval factors, Market share and antitrust, Relevant market definition</t>
+  </si>
+  <si>
+    <t>Market extent and price-setting power, Substitutability and market boundaries, Market definition criteria</t>
+  </si>
+  <si>
+    <t>Price dispersion in imperfect competition, Definition of single market price, Market imperfection implications</t>
+  </si>
+  <si>
+    <t>Imperfect competition, Price dispersion, Market price definition</t>
+  </si>
+  <si>
+    <t>Market power, Product differentiation, Pricing strategy</t>
+  </si>
+  <si>
+    <t>Arbitrage, Price convergence, Market efficiency</t>
+  </si>
+  <si>
+    <t>Transaction costs, Transportation costs, Legal barriers to trade</t>
+  </si>
+  <si>
+    <t>Perfect competition characteristics, Market structure, Bilateral monopoly</t>
+  </si>
+  <si>
+    <t>Product differentiation, Geographic market definition, Local market power</t>
+  </si>
+  <si>
+    <t>Merger analysis, Market definition, Substitute products</t>
+  </si>
+  <si>
+    <t>Arbitrage condition, Transaction costs vs. price gap</t>
+  </si>
+  <si>
+    <t>Commuting cost, Geographic market expansion, Tax impact on transportation</t>
+  </si>
+  <si>
+    <t>Real vs. nominal prices, Constant dollar definition, Inflation adjustment</t>
   </si>
   <si>
     <t>CPI interpretation, Inflation measurement</t>
   </si>
   <si>
-    <t>Converting nominal prices across years, CPI adjustment formula</t>
-  </si>
-  <si>
-    <t>Real price constancy condition, Inflation rate calculation</t>
-  </si>
-  <si>
-    <t>Real price change calculation, Adjusting for inflation</t>
-  </si>
-  <si>
-    <t>Converting past nominal prices to later real dollars, CPI ratio method</t>
-  </si>
-  <si>
-    <t>Producer Price Index usage, Input cost inflation</t>
-  </si>
-  <si>
-    <t>CPI market basket composition, Consumer vs. producer goods</t>
-  </si>
-  <si>
-    <t>Producer Price Index definition, Wholesale price measurement</t>
-  </si>
-  <si>
-    <t>Rebasing a price index, CPI rescaling formula</t>
-  </si>
-  <si>
-    <t>Base-year invariance of inflation rate, Heterogeneous price changes</t>
-  </si>
-  <si>
-    <t>Consumer Price Index definition, Retail price measurement</t>
-  </si>
-  <si>
-    <t>Indexation of benefits, Maintaining real purchasing power</t>
-  </si>
-  <si>
-    <t>Real value calculation using CPI, Comparing real wages across years, Inflation adjustment</t>
-  </si>
-  <si>
-    <t>Converting nominal values to real values using CPI, Historical price adjustment</t>
-  </si>
-  <si>
-    <t>Nominal price calculation from real value, CPI adjustment</t>
-  </si>
-  <si>
-    <t>Real value calculation using base year CPI, Price comparison across time</t>
-  </si>
-  <si>
-    <t>Real price calculation, Percentage change in real price, Technology cost trends</t>
-  </si>
-  <si>
-    <t>Real cost comparison across locations, Regional CPI differences</t>
-  </si>
-  <si>
-    <t>Maintaining purchasing power, Inflation adjustment of wages</t>
-  </si>
-  <si>
-    <t>Core vs. overall inflation, CPI components</t>
-  </si>
-  <si>
-    <t>Real vs. nominal returns, Fisher equation approximation</t>
-  </si>
-  <si>
-    <t>Scope of microeconomics, Firm-level vs. macro-level analysis</t>
-  </si>
-  <si>
-    <t>Microeconomics in policy design, Incentives vs. lobbying</t>
-  </si>
-  <si>
-    <t>Normative vs. positive economics, Corporate decision frameworks</t>
-  </si>
-  <si>
-    <t>Environmental policy instruments, Incentive-based regulation, Energy conservation strategies</t>
-  </si>
-  <si>
-    <t>Environmental regulation, Externalities, Normative economic analysis</t>
-  </si>
-  <si>
-    <t>Product launch analysis, Positive economic analysis, Market impact assessment</t>
-  </si>
-  <si>
-    <t>CAFE standards, Fuel economy policy, Normative economic analysis</t>
+    <t>Real price conversion, CPI base-year adjustment</t>
+  </si>
+  <si>
+    <t>Real price constancy, Inflation rate calculation</t>
+  </si>
+  <si>
+    <t>Real price change, Percentage decline with inflation</t>
+  </si>
+  <si>
+    <t>Nominal to real conversion, CPI ratio method</t>
+  </si>
+  <si>
+    <t>Producer Price Index, Intermediate goods inflation</t>
+  </si>
+  <si>
+    <t>CPI basket composition, Consumer vs. producer goods</t>
+  </si>
+  <si>
+    <t>Producer Price Index, Wholesale price measurement</t>
+  </si>
+  <si>
+    <t>CPI rebasing, Index rescaling</t>
+  </si>
+  <si>
+    <t>Base-year invariance of inflation rate, CPI heterogeneity across goods</t>
+  </si>
+  <si>
+    <t>Consumer Price Index, Retail price measurement</t>
+  </si>
+  <si>
+    <t>Indexation of benefits, CPI-based real value maintenance</t>
+  </si>
+  <si>
+    <t>Converting nominal to real values, CPI as deflator, Real wage comparison across years</t>
+  </si>
+  <si>
+    <t>Historical CPI conversion, Real value calculation, Purchasing power over time</t>
+  </si>
+  <si>
+    <t>Reverse real-to-nominal conversion, CPI ratio method</t>
+  </si>
+  <si>
+    <t>Real value in base year dollars, CPI deflation technique</t>
+  </si>
+  <si>
+    <t>Real price comparison, Percentage change in real terms, Technological deflation</t>
+  </si>
+  <si>
+    <t>Regional CPI comparison, Real cost across cities</t>
+  </si>
+  <si>
+    <t>Real investment return, CPI-adjusted gains, Purchasing power growth</t>
+  </si>
+  <si>
+    <t>Cross-country real cost comparison, Base-year conversion, Real housing cost trend</t>
+  </si>
+  <si>
+    <t>Regional price index comparison, Real salary evaluation, Cost-of-living adjustment</t>
+  </si>
+  <si>
+    <t>Inflation-adjusted wage setting, CPI growth projection, Real wage maintenance</t>
+  </si>
+  <si>
+    <t>Core vs headline inflation, CPI basket composition, Inflation measurement</t>
+  </si>
+  <si>
+    <t>Real vs nominal return, Fisher approximation, Investment outcome possibilities</t>
+  </si>
+  <si>
+    <t>Scope of microeconomics, Firm-level vs macro-level analysis, Corporate applications of micro theory</t>
+  </si>
+  <si>
+    <t>Microeconomic applications in environmental policy, Policy design vs. advocacy, Tradeoffs in environmental regulation</t>
+  </si>
+  <si>
+    <t>Positive vs. normative analysis, Firm-level impact assessment</t>
+  </si>
+  <si>
+    <t>Normative policy analysis, Externalities and regulation</t>
+  </si>
+  <si>
+    <t>Positive analysis in business decision-making, Market entry evaluation</t>
+  </si>
+  <si>
+    <t>Normative analysis in fuel-efficiency regulation, Standards vs. market outcomes</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1302,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1316,13 +1344,13 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1330,13 +1358,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1344,13 +1372,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1358,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1372,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1386,13 +1414,13 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1400,13 +1428,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1414,13 +1442,13 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1428,13 +1456,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1442,13 +1470,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1456,13 +1484,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1470,13 +1498,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D14" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1484,13 +1512,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1498,13 +1526,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1512,13 +1540,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1526,13 +1554,13 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1540,13 +1568,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D19" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1554,13 +1582,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D20" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1568,13 +1596,13 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D21" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1582,13 +1610,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1596,13 +1624,13 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D23" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1610,13 +1638,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1624,13 +1652,13 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1638,13 +1666,13 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1652,13 +1680,13 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D27" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1666,13 +1694,13 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D28" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1680,13 +1708,13 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1694,13 +1722,13 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1708,13 +1736,13 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1722,13 +1750,13 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1736,13 +1764,13 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1750,13 +1778,13 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D34" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1764,13 +1792,13 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1778,21 +1806,27 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>40</v>
       </c>
+      <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1800,13 +1834,13 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1814,13 +1848,13 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1828,13 +1862,13 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1842,13 +1876,13 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1856,13 +1890,13 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D42" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1870,13 +1904,13 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1884,13 +1918,13 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1898,13 +1932,13 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1912,13 +1946,13 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D46" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1926,13 +1960,13 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1940,13 +1974,13 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
         <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1954,13 +1988,13 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1968,13 +2002,13 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1982,13 +2016,13 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1996,13 +2030,13 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2010,13 +2044,13 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2024,13 +2058,13 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2038,13 +2072,13 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="C55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D55" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2052,164 +2086,137 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>60</v>
       </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
       <c r="C57" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>61</v>
       </c>
-      <c r="B58" t="s">
-        <v>128</v>
-      </c>
       <c r="C58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B59" t="s">
-        <v>129</v>
-      </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>63</v>
       </c>
-      <c r="B60" t="s">
-        <v>130</v>
-      </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>64</v>
       </c>
-      <c r="B61" t="s">
-        <v>131</v>
-      </c>
       <c r="C61" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
-        <v>132</v>
-      </c>
       <c r="C62" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>66</v>
       </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" t="s">
-        <v>134</v>
-      </c>
       <c r="C64" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" t="s">
-        <v>135</v>
-      </c>
       <c r="C65" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>69</v>
       </c>
-      <c r="B66" t="s">
-        <v>136</v>
-      </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" t="s">
-        <v>137</v>
-      </c>
       <c r="C67" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D67" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2217,13 +2224,13 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2231,13 +2238,13 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2245,13 +2252,13 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C70" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D70" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2259,13 +2266,13 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D71" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2273,13 +2280,13 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D72" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2287,13 +2294,55 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" t="s">
         <v>143</v>
       </c>
-      <c r="C73" t="s">
-        <v>146</v>
-      </c>
-      <c r="D73" t="s">
-        <v>221</v>
+      <c r="D76" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
